--- a/ТРП-2-21.xlsx
+++ b/ТРП-2-21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OpenServer\domains\timing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1741D439-9B2F-43A6-BAAF-5D0AC15111BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F1944C-78B1-4473-926A-46073EAD0698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="705" yWindow="7065" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Понедельник</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Суббота</t>
-  </si>
-  <si>
-    <t>Матетематика1</t>
   </si>
   <si>
     <t>Матетематика2</t>
@@ -389,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,67 +402,85 @@
     <col min="6" max="6" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
